--- a/biology/Botanique/Eucalyptus_fibrosa/Eucalyptus_fibrosa.xlsx
+++ b/biology/Botanique/Eucalyptus_fibrosa/Eucalyptus_fibrosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eucalyptus fibrosa, l'eucalyptus à écorce de fer, Ironbark rouge ou mugga, est un eucalyptus australien de la famille des Myrtaceae. Il doit son nom à son écorce persistante sur le tronc et les grosses branches, écorce dure, rugueuse d'un rouge presque noir alors qu'elle est lisse et blanche sur les jeunes branches.
 Il atteint 30 mètres de haut. Les fleurs sont d'un blanc crème. Les feuilles, vert foncé, sont plus larges que celles des autres ironbarks. Le bois, dense et résistant, est utilisé en construction.
@@ -514,7 +526,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Il en existe deux sous-espèces:
 Eucalyptus fibrosa subsp. nubila - Ironbark à feuilles bleues.
